--- a/output/euk_class_season_rel_abund.xlsx
+++ b/output/euk_class_season_rel_abund.xlsx
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="3">
@@ -520,7 +520,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5">
@@ -548,7 +548,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -562,7 +562,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>3.37</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="7">
@@ -576,7 +576,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="8">
@@ -590,7 +590,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="9">
@@ -604,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="10">
@@ -618,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="D10" t="n">
-        <v>5.73</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12">
@@ -660,7 +660,7 @@
         <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="14">
@@ -674,7 +674,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="n">
-        <v>25.54</v>
+        <v>28.39</v>
       </c>
     </row>
     <row r="15">
@@ -688,7 +688,7 @@
         <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>32.01</v>
+        <v>25.93</v>
       </c>
     </row>
     <row r="16">
@@ -702,7 +702,7 @@
         <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="17">
@@ -716,7 +716,7 @@
         <v>21</v>
       </c>
       <c r="D17" t="n">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="18">
@@ -730,7 +730,7 @@
         <v>22</v>
       </c>
       <c r="D18" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="19">
@@ -744,7 +744,7 @@
         <v>23</v>
       </c>
       <c r="D19" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="20">
@@ -758,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="21">
@@ -772,7 +772,7 @@
         <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>15.09</v>
+        <v>16.71</v>
       </c>
     </row>
     <row r="22">
@@ -786,7 +786,7 @@
         <v>26</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="23">
@@ -800,7 +800,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="n">
-        <v>6.9</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="24">
@@ -814,7 +814,7 @@
         <v>28</v>
       </c>
       <c r="D24" t="n">
-        <v>4.46</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="25">
@@ -842,7 +842,7 @@
         <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="27">
